--- a/data/case1/18/Q2_13.xlsx
+++ b/data/case1/18/Q2_13.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.074532989887281076</v>
+        <v>0.082760001704322406</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.00599999992518363</v>
+        <v>0.015122500851830978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999435469391</v>
+        <v>-0.0039999999732476255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998939044303</v>
+        <v>-0.0079999999493640672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.033529915435138946</v>
+        <v>-0.0029999999767360563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999611322039</v>
+        <v>-0.0019999999801800783</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.019661134280969161</v>
+        <v>-0.0099999999345934398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998579809457</v>
+        <v>-0.0099999999345672386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999514577205</v>
+        <v>-0.0019999999807822633</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.001999999947383202</v>
+        <v>-0.0019999999818924863</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999348611084</v>
+        <v>-0.0029999999762786445</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.003499999927959685</v>
+        <v>-0.0034999999738594134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999254603509</v>
+        <v>-0.0034999999769027568</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998698419006</v>
+        <v>-0.0079999999525721677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999995612076731</v>
+        <v>0.039831184682714849</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0075645563112547443</v>
+        <v>-0.0019999999877406971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999441573379</v>
+        <v>-0.0019999999869755314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.00021581433795869742</v>
+        <v>-0.003999999975430768</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999501727501</v>
+        <v>-0.0034256514444188646</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999456181712</v>
+        <v>-0.0039999999749742443</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999449342738</v>
+        <v>-0.0039999999746980208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999444102485</v>
+        <v>-0.0039999999744972925</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999271435058</v>
+        <v>-0.0049999999655936378</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999734409357</v>
+        <v>-0.019999999876674224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999730006657</v>
+        <v>-0.019999999874927177</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.002499999954462595</v>
+        <v>-0.0024999999771910808</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999535904038</v>
+        <v>-0.0024999999770116688</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999560216253</v>
+        <v>-0.0019999999791098233</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998926473239</v>
+        <v>-0.006999999950592084</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999241921564</v>
+        <v>-0.059999999650593772</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999087073661</v>
+        <v>0.081894454155923668</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.07061650052628643</v>
+        <v>-0.009999999940742299</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999500910377</v>
+        <v>-0.0039999999746438419</v>
       </c>
     </row>
   </sheetData>
